--- a/SCBAA/2018/BARMM.xlsx
+++ b/SCBAA/2018/BARMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDE79EA-856C-4B29-90D5-D565A224C283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C9985-FC7E-43EF-A269-CA2A050529DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="180" windowWidth="14805" windowHeight="12495" activeTab="2" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Isabela" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1572,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1738,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>14252009.189999999</v>
       </c>
     </row>
@@ -1785,7 +1791,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>111333555.62</v>
       </c>
     </row>
@@ -1976,7 +1981,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>670040771.54999995</v>
       </c>
     </row>
@@ -2553,7 +2557,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>531790839.44</v>
       </c>
     </row>
@@ -2720,7 +2723,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="37">
-        <f>13803087.64+3069139</f>
         <v>16872226.640000001</v>
       </c>
     </row>
@@ -2729,7 +2731,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>16872226.640000001</v>
       </c>
     </row>
@@ -2741,7 +2742,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>548663066.08000004</v>
       </c>
     </row>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7812AE03-1CC5-48F4-9EDA-252F0E69F4E7}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +2922,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>9185866.5800000001</v>
       </c>
     </row>
@@ -2976,7 +2975,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>13532782.879999999</v>
       </c>
     </row>
@@ -3168,7 +3166,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>554936215.81999993</v>
       </c>
     </row>
@@ -3725,7 +3722,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="45">
-        <f>14527336.86+2050000</f>
         <v>16577336.859999999</v>
       </c>
     </row>
@@ -3746,7 +3742,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>533135580.17000008</v>
       </c>
     </row>
@@ -3913,7 +3908,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="37">
-        <f>6352883+9247013.55</f>
         <v>15599896.550000001</v>
       </c>
     </row>
@@ -3922,7 +3916,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>15599896.550000001</v>
       </c>
     </row>
@@ -3934,7 +3927,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>548735476.72000003</v>
       </c>
     </row>
@@ -3956,7 +3948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E8730-432B-4364-AF7F-AFDD368C9583}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
